--- a/ガントチャート/ガントチャート.xlsx
+++ b/ガントチャート/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\OH\class\4th\AT4C\新企画\企画書・仕様書まとめ\ガントチャート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CSDC_Clone\ガントチャート\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9250" windowHeight="13700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9250" windowHeight="13700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="整理" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="実装">Sheet2!$D$2:$D$3</definedName>
     <definedName name="承認済み">Sheet2!$E$2:$E$3</definedName>
     <definedName name="承認者">Sheet2!$B$2:$B$10</definedName>
-    <definedName name="担当者">Sheet2!$A$2:$A$11</definedName>
+    <definedName name="担当者">Sheet2!$A$2:$A$10</definedName>
     <definedName name="非稼働日">Sheet2!$C$2:$C$8</definedName>
     <definedName name="優先度">Sheet2!#REF!</definedName>
   </definedNames>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>今日の日付</t>
     <rPh sb="0" eb="2">
@@ -351,61 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プランナー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>草案3つ提案</t>
     <rPh sb="0" eb="2">
       <t>ソウアン</t>
@@ -492,11 +437,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
+    <t>岩見</t>
+    <rPh sb="0" eb="2">
+      <t>イワミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B</t>
+    <t>仲尾</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鴨</t>
+    <rPh sb="0" eb="1">
+      <t>カモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定井</t>
+    <rPh sb="0" eb="2">
+      <t>サダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新島</t>
+    <rPh sb="0" eb="2">
+      <t>ニイジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西尾</t>
+    <rPh sb="0" eb="2">
+      <t>ニシオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松田</t>
+    <rPh sb="0" eb="2">
+      <t>マツダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松本</t>
+    <rPh sb="0" eb="2">
+      <t>マツモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>劉</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,12 +779,6 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="56" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,6 +790,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DZ612"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="15" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1307,116 +1307,116 @@
       <c r="Z1" s="44"/>
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46" t="s">
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46"/>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="46"/>
-      <c r="CJ1" s="46"/>
-      <c r="CK1" s="46"/>
-      <c r="CL1" s="46"/>
-      <c r="CM1" s="46"/>
-      <c r="CN1" s="46"/>
-      <c r="CO1" s="46"/>
-      <c r="CP1" s="46"/>
-      <c r="CQ1" s="46"/>
-      <c r="CR1" s="46"/>
-      <c r="CS1" s="46"/>
-      <c r="CT1" s="46"/>
-      <c r="CU1" s="46"/>
-      <c r="CV1" s="47" t="s">
+      <c r="BS1" s="51"/>
+      <c r="BT1" s="51"/>
+      <c r="BU1" s="51"/>
+      <c r="BV1" s="51"/>
+      <c r="BW1" s="51"/>
+      <c r="BX1" s="51"/>
+      <c r="BY1" s="51"/>
+      <c r="BZ1" s="51"/>
+      <c r="CA1" s="51"/>
+      <c r="CB1" s="51"/>
+      <c r="CC1" s="51"/>
+      <c r="CD1" s="51"/>
+      <c r="CE1" s="51"/>
+      <c r="CF1" s="51"/>
+      <c r="CG1" s="51"/>
+      <c r="CH1" s="51"/>
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="51"/>
+      <c r="CN1" s="51"/>
+      <c r="CO1" s="51"/>
+      <c r="CP1" s="51"/>
+      <c r="CQ1" s="51"/>
+      <c r="CR1" s="51"/>
+      <c r="CS1" s="51"/>
+      <c r="CT1" s="51"/>
+      <c r="CU1" s="51"/>
+      <c r="CV1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="CW1" s="47"/>
-      <c r="CX1" s="47"/>
-      <c r="CY1" s="47"/>
-      <c r="CZ1" s="47"/>
-      <c r="DA1" s="47"/>
-      <c r="DB1" s="47"/>
-      <c r="DC1" s="47"/>
-      <c r="DD1" s="47"/>
-      <c r="DE1" s="47"/>
-      <c r="DF1" s="47"/>
-      <c r="DG1" s="47"/>
-      <c r="DH1" s="47"/>
-      <c r="DI1" s="47"/>
-      <c r="DJ1" s="47"/>
-      <c r="DK1" s="47"/>
-      <c r="DL1" s="47"/>
-      <c r="DM1" s="47"/>
-      <c r="DN1" s="47"/>
-      <c r="DO1" s="47"/>
-      <c r="DP1" s="47"/>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="47"/>
-      <c r="DS1" s="47"/>
-      <c r="DT1" s="47"/>
-      <c r="DU1" s="47"/>
-      <c r="DV1" s="47"/>
-      <c r="DW1" s="47"/>
-      <c r="DX1" s="47"/>
-      <c r="DY1" s="47"/>
-      <c r="DZ1" s="47"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="50"/>
+      <c r="DG1" s="50"/>
+      <c r="DH1" s="50"/>
+      <c r="DI1" s="50"/>
+      <c r="DJ1" s="50"/>
+      <c r="DK1" s="50"/>
+      <c r="DL1" s="50"/>
+      <c r="DM1" s="50"/>
+      <c r="DN1" s="50"/>
+      <c r="DO1" s="50"/>
+      <c r="DP1" s="50"/>
+      <c r="DQ1" s="50"/>
+      <c r="DR1" s="50"/>
+      <c r="DS1" s="50"/>
+      <c r="DT1" s="50"/>
+      <c r="DU1" s="50"/>
+      <c r="DV1" s="50"/>
+      <c r="DW1" s="50"/>
+      <c r="DX1" s="50"/>
+      <c r="DY1" s="50"/>
+      <c r="DZ1" s="50"/>
     </row>
     <row r="2" spans="1:130" ht="18" customHeight="1">
       <c r="L2" s="1" t="s">
@@ -2168,7 +2168,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15" t="str">
-        <f t="shared" ref="K4:K67" si="0">IF($H4="","",IF(AND($J4="",$H4&gt;=$O$2),"",IF(AND($J4="",$H4&lt;$O$2),$O$2-$H4,$J4-$H4)))</f>
+        <f t="shared" ref="K4:K5" si="0">IF($H4="","",IF(AND($J4="",$H4&gt;=$O$2),"",IF(AND($J4="",$H4&lt;$O$2),$O$2-$H4,$J4-$H4)))</f>
         <v/>
       </c>
       <c r="L4" s="16"/>
@@ -2700,7 +2700,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="39">
@@ -2969,7 +2969,7 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="39">
@@ -3238,7 +3238,7 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="39">
@@ -3507,7 +3507,7 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="39"/>
@@ -6632,7 +6632,7 @@
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="39">
@@ -6646,7 +6646,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
       <c r="M21" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="17"/>
@@ -6904,7 +6904,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
@@ -7169,7 +7169,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
@@ -10154,7 +10154,7 @@
         <v/>
       </c>
       <c r="AJ34" s="28" t="str">
-        <f t="shared" ref="AJ34:AY40" si="13">IF(AND(AJ$2&gt;=$I34,AJ$2&lt;=$J34),"・","")</f>
+        <f t="shared" ref="AJ34:AY36" si="13">IF(AND(AJ$2&gt;=$I34,AJ$2&lt;=$J34),"・","")</f>
         <v/>
       </c>
       <c r="AK34" s="28" t="str">
@@ -10401,7 +10401,7 @@
         <v/>
       </c>
       <c r="AF35" s="28" t="str">
-        <f t="shared" ref="AF35:AU41" si="14">IF(AND(AF$2&gt;=$I35,AF$2&lt;=$J35),"・","")</f>
+        <f t="shared" ref="AF35:AO36" si="14">IF(AND(AF$2&gt;=$I35,AF$2&lt;=$J35),"・","")</f>
         <v/>
       </c>
       <c r="AG35" s="28" t="str">
@@ -10509,7 +10509,7 @@
         <v/>
       </c>
       <c r="BG35" s="28" t="str">
-        <f t="shared" ref="BG35:BV41" si="15">IF(AND(BG$2&gt;=$I35,BG$2&lt;=$J35),"・","")</f>
+        <f t="shared" ref="BG35:BV36" si="15">IF(AND(BG$2&gt;=$I35,BG$2&lt;=$J35),"・","")</f>
         <v/>
       </c>
       <c r="BH35" s="28" t="str">
@@ -10573,7 +10573,7 @@
         <v/>
       </c>
       <c r="BW35" s="28" t="str">
-        <f t="shared" ref="BW35:BX41" si="16">IF(AND(BW$2&gt;=$I35,BW$2&lt;=$J35),"・","")</f>
+        <f t="shared" ref="BW35:BX36" si="16">IF(AND(BW$2&gt;=$I35,BW$2&lt;=$J35),"・","")</f>
         <v/>
       </c>
       <c r="BX35" s="29" t="str">
@@ -10744,7 +10744,7 @@
         <v/>
       </c>
       <c r="AZ36" s="28" t="str">
-        <f t="shared" ref="AZ36:BO40" si="17">IF(AND(AZ$2&gt;=$I36,AZ$2&lt;=$J36),"・","")</f>
+        <f t="shared" ref="AZ36:BG36" si="17">IF(AND(AZ$2&gt;=$I36,AZ$2&lt;=$J36),"・","")</f>
         <v/>
       </c>
       <c r="BA36" s="28" t="str">
@@ -11085,7 +11085,7 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="34"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -11163,7 +11163,7 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="46"/>
       <c r="H41" s="34"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -11241,7 +11241,7 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="48"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="34"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -11319,7 +11319,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="24"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="48"/>
+      <c r="G43" s="46"/>
       <c r="H43" s="34"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -11397,7 +11397,7 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="48"/>
+      <c r="G44" s="46"/>
       <c r="H44" s="34"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -11475,7 +11475,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
-      <c r="G45" s="48"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="34"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -11553,7 +11553,7 @@
       <c r="D46" s="26"/>
       <c r="E46" s="24"/>
       <c r="F46" s="26"/>
-      <c r="G46" s="48"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="34"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -11631,7 +11631,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="48"/>
+      <c r="G47" s="46"/>
       <c r="H47" s="34"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -11709,7 +11709,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="48"/>
+      <c r="G48" s="46"/>
       <c r="H48" s="34"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -11787,7 +11787,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="48"/>
+      <c r="G49" s="46"/>
       <c r="H49" s="34"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -11865,7 +11865,7 @@
       <c r="D50" s="26"/>
       <c r="E50" s="24"/>
       <c r="F50" s="26"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="46"/>
       <c r="H50" s="34"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -11943,7 +11943,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="48"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="34"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -12021,7 +12021,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="24"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="48"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="34"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -12099,7 +12099,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="48"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="34"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -12177,7 +12177,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
-      <c r="G54" s="48"/>
+      <c r="G54" s="46"/>
       <c r="H54" s="34"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -12255,7 +12255,7 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
-      <c r="G55" s="48"/>
+      <c r="G55" s="46"/>
       <c r="H55" s="34"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -12333,7 +12333,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
-      <c r="G56" s="48"/>
+      <c r="G56" s="46"/>
       <c r="H56" s="34"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -12411,7 +12411,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
-      <c r="G57" s="48"/>
+      <c r="G57" s="46"/>
       <c r="H57" s="34"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -12489,7 +12489,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
-      <c r="G58" s="48"/>
+      <c r="G58" s="46"/>
       <c r="H58" s="34"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -12567,7 +12567,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="24"/>
       <c r="F59" s="26"/>
-      <c r="G59" s="48"/>
+      <c r="G59" s="46"/>
       <c r="H59" s="34"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -12645,7 +12645,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
-      <c r="G60" s="48"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="34"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -12723,7 +12723,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
-      <c r="G61" s="48"/>
+      <c r="G61" s="46"/>
       <c r="H61" s="34"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -12801,7 +12801,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="24"/>
       <c r="F62" s="26"/>
-      <c r="G62" s="48"/>
+      <c r="G62" s="46"/>
       <c r="H62" s="34"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -12879,7 +12879,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
-      <c r="G63" s="48"/>
+      <c r="G63" s="46"/>
       <c r="H63" s="34"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -12957,7 +12957,7 @@
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="48"/>
+      <c r="G64" s="46"/>
       <c r="H64" s="34"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -13035,7 +13035,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
-      <c r="G65" s="48"/>
+      <c r="G65" s="46"/>
       <c r="H65" s="34"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -13113,7 +13113,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
-      <c r="G66" s="48"/>
+      <c r="G66" s="46"/>
       <c r="H66" s="34"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -13191,7 +13191,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="24"/>
       <c r="F67" s="26"/>
-      <c r="G67" s="48"/>
+      <c r="G67" s="46"/>
       <c r="H67" s="34"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -13269,7 +13269,7 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
-      <c r="G68" s="48"/>
+      <c r="G68" s="46"/>
       <c r="H68" s="34"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -13347,7 +13347,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="48"/>
+      <c r="G69" s="46"/>
       <c r="H69" s="34"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -13425,7 +13425,7 @@
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
-      <c r="G70" s="48"/>
+      <c r="G70" s="46"/>
       <c r="H70" s="34"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -13503,7 +13503,7 @@
       <c r="D71" s="26"/>
       <c r="E71" s="24"/>
       <c r="F71" s="26"/>
-      <c r="G71" s="48"/>
+      <c r="G71" s="46"/>
       <c r="H71" s="34"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
@@ -13581,7 +13581,7 @@
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
-      <c r="G72" s="48"/>
+      <c r="G72" s="46"/>
       <c r="H72" s="34"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -13659,7 +13659,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
-      <c r="G73" s="48"/>
+      <c r="G73" s="46"/>
       <c r="H73" s="34"/>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -13737,7 +13737,7 @@
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
-      <c r="G74" s="48"/>
+      <c r="G74" s="46"/>
       <c r="H74" s="34"/>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -13815,7 +13815,7 @@
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
-      <c r="G75" s="48"/>
+      <c r="G75" s="46"/>
       <c r="H75" s="34"/>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -13893,7 +13893,7 @@
       <c r="D76" s="26"/>
       <c r="E76" s="24"/>
       <c r="F76" s="26"/>
-      <c r="G76" s="48"/>
+      <c r="G76" s="46"/>
       <c r="H76" s="34"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -13971,7 +13971,7 @@
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
-      <c r="G77" s="48"/>
+      <c r="G77" s="46"/>
       <c r="H77" s="34"/>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -14049,7 +14049,7 @@
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
-      <c r="G78" s="48"/>
+      <c r="G78" s="46"/>
       <c r="H78" s="34"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -14127,7 +14127,7 @@
       <c r="D79" s="26"/>
       <c r="E79" s="24"/>
       <c r="F79" s="26"/>
-      <c r="G79" s="48"/>
+      <c r="G79" s="46"/>
       <c r="H79" s="34"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -14205,7 +14205,7 @@
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
-      <c r="G80" s="48"/>
+      <c r="G80" s="46"/>
       <c r="H80" s="34"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -14283,7 +14283,7 @@
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
-      <c r="G81" s="48"/>
+      <c r="G81" s="46"/>
       <c r="H81" s="34"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -14361,7 +14361,7 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="48"/>
+      <c r="G82" s="46"/>
       <c r="H82" s="34"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -14439,7 +14439,7 @@
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
-      <c r="G83" s="48"/>
+      <c r="G83" s="46"/>
       <c r="H83" s="34"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -14517,7 +14517,7 @@
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
-      <c r="G84" s="48"/>
+      <c r="G84" s="46"/>
       <c r="H84" s="34"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -14595,7 +14595,7 @@
       <c r="D85" s="26"/>
       <c r="E85" s="24"/>
       <c r="F85" s="26"/>
-      <c r="G85" s="48"/>
+      <c r="G85" s="46"/>
       <c r="H85" s="34"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -14673,7 +14673,7 @@
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="46"/>
       <c r="H86" s="34"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -14751,7 +14751,7 @@
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
-      <c r="G87" s="48"/>
+      <c r="G87" s="46"/>
       <c r="H87" s="34"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -14829,7 +14829,7 @@
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
-      <c r="G88" s="48"/>
+      <c r="G88" s="46"/>
       <c r="H88" s="34"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -14907,7 +14907,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="24"/>
       <c r="F89" s="26"/>
-      <c r="G89" s="48"/>
+      <c r="G89" s="46"/>
       <c r="H89" s="34"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
@@ -19040,7 +19040,7 @@
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="49"/>
+      <c r="F142" s="47"/>
       <c r="G142" s="39"/>
       <c r="H142" s="34"/>
       <c r="I142" s="14"/>
@@ -27543,8 +27543,8 @@
       <c r="D251" s="26"/>
       <c r="E251" s="26"/>
       <c r="F251" s="26"/>
-      <c r="G251" s="50"/>
-      <c r="H251" s="51"/>
+      <c r="G251" s="48"/>
+      <c r="H251" s="49"/>
       <c r="I251" s="16"/>
       <c r="J251" s="16"/>
       <c r="K251" s="15"/>
@@ -27699,8 +27699,8 @@
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
       <c r="F253" s="26"/>
-      <c r="G253" s="50"/>
-      <c r="H253" s="51"/>
+      <c r="G253" s="48"/>
+      <c r="H253" s="49"/>
       <c r="I253" s="16"/>
       <c r="J253" s="16"/>
       <c r="K253" s="15"/>
@@ -55889,7 +55889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -55916,10 +55918,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C2" s="10">
         <v>43379</v>
@@ -55933,10 +55935,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10">
         <v>43380</v>
@@ -55950,10 +55952,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10">
         <v>43381</v>
@@ -55963,10 +55965,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10">
         <v>43386</v>
@@ -55976,10 +55978,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10">
         <v>43387</v>
@@ -55989,10 +55991,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="10">
         <v>43393</v>
@@ -56002,10 +56004,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10">
         <v>43394</v>
@@ -56015,10 +56017,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" s="45">
         <v>43400</v>
@@ -56028,9 +56030,11 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="45">
         <v>43401</v>
       </c>
@@ -56038,9 +56042,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="45">
         <v>43407</v>

--- a/ガントチャート/ガントチャート.xlsx
+++ b/ガントチャート/ガントチャート.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>今日の日付</t>
     <rPh sb="0" eb="2">
@@ -497,6 +497,10 @@
     <rPh sb="0" eb="1">
       <t>リュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -55890,7 +55894,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -55973,7 +55977,9 @@
       <c r="C5" s="10">
         <v>43386</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:6">
